--- a/JsonExport/excel/Character_attribute.xlsx
+++ b/JsonExport/excel/Character_attribute.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B941AA2-B4CA-43A8-B3D3-5A6F566B0BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色基础属性" sheetId="2" r:id="rId1"/>
@@ -169,14 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,151 +191,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,198 +207,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -558,255 +241,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,71 +269,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1179,40 +570,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.33333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="16.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="9.62962962962963" customWidth="1"/>
-    <col min="5" max="5" width="8.62962962962963" customWidth="1"/>
-    <col min="6" max="6" width="9.62962962962963" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="19.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="7.62962962962963" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="45.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="45.125" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="15" width="20.25" customWidth="1"/>
     <col min="16" max="16" width="28.5" customWidth="1"/>
-    <col min="17" max="17" width="11.8796296296296" customWidth="1"/>
-    <col min="18" max="18" width="8.62962962962963" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
     <col min="19" max="19" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +612,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1278,7 +669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="81.95" customHeight="1" spans="1:19">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -1320,17 +711,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="2:8">
+    <row r="4" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:19">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1344,7 +734,7 @@
       <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1353,38 +743,38 @@
       <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>48</v>
@@ -1438,7 +828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:19">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>10001</v>
       </c>
@@ -1491,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:19">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>10001</v>
       </c>
@@ -1544,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:19">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>10001</v>
       </c>
@@ -1597,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:19">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>10001</v>
       </c>
@@ -1650,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:19">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>10001</v>
       </c>
@@ -1703,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:19">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>10001</v>
       </c>
@@ -1756,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="2:19">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>10001</v>
       </c>
@@ -1809,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="2:19">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>10001</v>
       </c>
@@ -1862,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="2:19">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>10001</v>
       </c>
@@ -1915,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="2:19">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>10001</v>
       </c>
@@ -1968,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:19">
+    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>10002</v>
       </c>
@@ -2021,7 +1411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:19">
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>10002</v>
       </c>
@@ -2074,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:19">
+    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>10002</v>
       </c>
@@ -2127,7 +1517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:19">
+    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>10002</v>
       </c>
@@ -2180,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:19">
+    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>10002</v>
       </c>
@@ -2233,7 +1623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:19">
+    <row r="22" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>10002</v>
       </c>
@@ -2286,7 +1676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="2:19">
+    <row r="23" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>10002</v>
       </c>
@@ -2339,7 +1729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:19">
+    <row r="24" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>10002</v>
       </c>
@@ -2392,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="2:19">
+    <row r="25" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>10002</v>
       </c>
@@ -2445,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="2:19">
+    <row r="26" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>10002</v>
       </c>
@@ -2498,32 +1888,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
+    <row r="27" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/JsonExport/excel/Character_attribute.xlsx
+++ b/JsonExport/excel/Character_attribute.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B941AA2-B4CA-43A8-B3D3-5A6F566B0BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="角色基础属性" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -175,8 +182,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,14 +204,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,18 +357,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,13 +583,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,18 +856,68 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,40 +1204,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.37962962962963" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="9.62962962962963" customWidth="1"/>
+    <col min="5" max="5" width="8.62962962962963" customWidth="1"/>
+    <col min="6" max="6" width="9.62962962962963" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="19.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="7.62962962962963" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="45.125" customWidth="1"/>
+    <col min="11" max="11" width="45.1296296296296" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="15" width="20.25" customWidth="1"/>
     <col min="16" max="16" width="28.5" customWidth="1"/>
-    <col min="17" max="17" width="11.875" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="11.8796296296296" customWidth="1"/>
+    <col min="18" max="18" width="8.62962962962963" customWidth="1"/>
     <col min="19" max="19" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -612,7 +1246,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:19">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -662,14 +1296,14 @@
       <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="3" customFormat="1" ht="81.95" customHeight="1" spans="1:19">
       <c r="A3" s="4"/>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -704,14 +1338,14 @@
       <c r="Q3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="4" customFormat="1" spans="2:18">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -719,8 +1353,9 @@
         <v>31</v>
       </c>
       <c r="H4" s="7"/>
+      <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:19">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -767,14 +1402,14 @@
       <c r="Q5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="8" t="s">
         <v>46</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>48</v>
@@ -821,14 +1456,14 @@
       <c r="Q6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="8" t="s">
         <v>48</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" spans="2:19">
       <c r="B7" s="1">
         <v>10001</v>
       </c>
@@ -881,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" spans="2:19">
       <c r="B8" s="1">
         <v>10001</v>
       </c>
@@ -934,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" spans="2:19">
       <c r="B9" s="1">
         <v>10001</v>
       </c>
@@ -987,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" spans="2:19">
       <c r="B10" s="1">
         <v>10001</v>
       </c>
@@ -1040,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" spans="2:19">
       <c r="B11" s="1">
         <v>10001</v>
       </c>
@@ -1093,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" spans="2:19">
       <c r="B12" s="1">
         <v>10001</v>
       </c>
@@ -1146,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" spans="2:19">
       <c r="B13" s="1">
         <v>10001</v>
       </c>
@@ -1199,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" spans="2:19">
       <c r="B14" s="1">
         <v>10001</v>
       </c>
@@ -1252,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" spans="2:19">
       <c r="B15" s="1">
         <v>10001</v>
       </c>
@@ -1305,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" spans="2:19">
       <c r="B16" s="1">
         <v>10001</v>
       </c>
@@ -1358,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" spans="2:19">
       <c r="B17" s="1">
         <v>10002</v>
       </c>
@@ -1411,7 +2046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" spans="2:19">
       <c r="B18" s="1">
         <v>10002</v>
       </c>
@@ -1464,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" spans="2:19">
       <c r="B19" s="1">
         <v>10002</v>
       </c>
@@ -1517,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" spans="2:19">
       <c r="B20" s="1">
         <v>10002</v>
       </c>
@@ -1570,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" spans="2:19">
       <c r="B21" s="1">
         <v>10002</v>
       </c>
@@ -1623,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" spans="2:19">
       <c r="B22" s="1">
         <v>10002</v>
       </c>
@@ -1676,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" spans="2:19">
       <c r="B23" s="1">
         <v>10002</v>
       </c>
@@ -1729,7 +2364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" spans="2:19">
       <c r="B24" s="1">
         <v>10002</v>
       </c>
@@ -1782,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" spans="2:19">
       <c r="B25" s="1">
         <v>10002</v>
       </c>
@@ -1835,7 +2470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" spans="2:19">
       <c r="B26" s="1">
         <v>10002</v>
       </c>
@@ -1888,32 +2523,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
+    <row r="50" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JsonExport/excel/Character_attribute.xlsx
+++ b/JsonExport/excel/Character_attribute.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CC5B72-C8F6-4CDF-A61E-335D3D8A2516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色基础属性" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -177,19 +170,33 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>游侠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,151 +211,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,210 +235,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -583,255 +275,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,62 +312,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1204,40 +613,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.37962962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="16.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="9.62962962962963" customWidth="1"/>
-    <col min="5" max="5" width="8.62962962962963" customWidth="1"/>
-    <col min="6" max="6" width="9.62962962962963" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="19.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="7.62962962962963" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="45.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="45.125" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="15" width="20.25" customWidth="1"/>
     <col min="16" max="16" width="28.5" customWidth="1"/>
-    <col min="17" max="17" width="11.8796296296296" customWidth="1"/>
-    <col min="18" max="18" width="8.62962962962963" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
     <col min="19" max="19" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +655,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1303,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="81.95" customHeight="1" spans="1:19">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -1345,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="2:18">
+    <row r="4" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1355,7 +764,7 @@
       <c r="H4" s="7"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:19">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1409,7 +818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>48</v>
@@ -1463,13 +872,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:19">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
       <c r="B7" s="1">
         <v>10001</v>
       </c>
       <c r="C7" s="1">
         <v>1000101</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -1516,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:19">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>10001</v>
       </c>
@@ -1569,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:19">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>10001</v>
       </c>
@@ -1622,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:19">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>10001</v>
       </c>
@@ -1675,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:19">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>10001</v>
       </c>
@@ -1728,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:19">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>10001</v>
       </c>
@@ -1781,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="2:19">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>10001</v>
       </c>
@@ -1834,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="2:19">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>10001</v>
       </c>
@@ -1887,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="2:19">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>10001</v>
       </c>
@@ -1940,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="2:19">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>10001</v>
       </c>
@@ -1993,13 +1406,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:19">
+    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
       <c r="B17" s="1">
         <v>10002</v>
       </c>
       <c r="C17" s="1">
         <v>1000201</v>
       </c>
+      <c r="D17" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
@@ -2046,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:19">
+    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>10002</v>
       </c>
@@ -2099,7 +1516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:19">
+    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>10002</v>
       </c>
@@ -2152,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:19">
+    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>10002</v>
       </c>
@@ -2205,7 +1622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:19">
+    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>10002</v>
       </c>
@@ -2258,7 +1675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:19">
+    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>10002</v>
       </c>
@@ -2311,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="2:19">
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>10002</v>
       </c>
@@ -2364,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:19">
+    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>10002</v>
       </c>
@@ -2417,7 +1834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="2:19">
+    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>10002</v>
       </c>
@@ -2470,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="2:19">
+    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>10002</v>
       </c>
@@ -2523,32 +1940,1609 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
+    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1000301</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>35</v>
+      </c>
+      <c r="R27" s="1">
+        <v>30</v>
+      </c>
+      <c r="S27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1000302</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>35</v>
+      </c>
+      <c r="R28" s="1">
+        <v>30</v>
+      </c>
+      <c r="S28" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1000303</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>110</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>35</v>
+      </c>
+      <c r="R29" s="1">
+        <v>30</v>
+      </c>
+      <c r="S29" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1000304</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>35</v>
+      </c>
+      <c r="R30" s="1">
+        <v>30</v>
+      </c>
+      <c r="S30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1000305</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>130</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>35</v>
+      </c>
+      <c r="R31" s="1">
+        <v>30</v>
+      </c>
+      <c r="S31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1000306</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>140</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>20</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>35</v>
+      </c>
+      <c r="R32" s="1">
+        <v>30</v>
+      </c>
+      <c r="S32" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1000307</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
+        <v>150</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>35</v>
+      </c>
+      <c r="R33" s="1">
+        <v>30</v>
+      </c>
+      <c r="S33" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000308</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>160</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>35</v>
+      </c>
+      <c r="R34" s="1">
+        <v>30</v>
+      </c>
+      <c r="S34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1000309</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>170</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>20</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>35</v>
+      </c>
+      <c r="R35" s="1">
+        <v>30</v>
+      </c>
+      <c r="S35" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1000310</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>180</v>
+      </c>
+      <c r="G36" s="1">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>35</v>
+      </c>
+      <c r="R36" s="1">
+        <v>30</v>
+      </c>
+      <c r="S36" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1000401</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>30</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>10</v>
+      </c>
+      <c r="R37" s="1">
+        <v>30</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1000402</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>120</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>30</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>10</v>
+      </c>
+      <c r="R38" s="1">
+        <v>30</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1000403</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>140</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>30</v>
+      </c>
+      <c r="J39" s="1">
+        <v>10</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>5</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>10</v>
+      </c>
+      <c r="R39" s="1">
+        <v>30</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1000404</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>160</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>30</v>
+      </c>
+      <c r="J40" s="1">
+        <v>15</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>10</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>10</v>
+      </c>
+      <c r="R40" s="1">
+        <v>30</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1000405</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>180</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>40</v>
+      </c>
+      <c r="J41" s="1">
+        <v>15</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>10</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>10</v>
+      </c>
+      <c r="R41" s="1">
+        <v>30</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1000406</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>200</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+      <c r="J42" s="1">
+        <v>15</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>10</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>10</v>
+      </c>
+      <c r="R42" s="1">
+        <v>30</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1000407</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>220</v>
+      </c>
+      <c r="G43" s="1">
+        <v>15</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>40</v>
+      </c>
+      <c r="J43" s="1">
+        <v>20</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>10</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>10</v>
+      </c>
+      <c r="R43" s="1">
+        <v>30</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1000408</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
+        <v>240</v>
+      </c>
+      <c r="G44" s="1">
+        <v>15</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>50</v>
+      </c>
+      <c r="J44" s="1">
+        <v>20</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>15</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>10</v>
+      </c>
+      <c r="R44" s="1">
+        <v>30</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1000409</v>
+      </c>
+      <c r="E45" s="1">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <v>260</v>
+      </c>
+      <c r="G45" s="1">
+        <v>20</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>50</v>
+      </c>
+      <c r="J45" s="1">
+        <v>20</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>15</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>10</v>
+      </c>
+      <c r="R45" s="1">
+        <v>30</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1000410</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>280</v>
+      </c>
+      <c r="G46" s="1">
+        <v>20</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>50</v>
+      </c>
+      <c r="J46" s="1">
+        <v>30</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>15</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>10</v>
+      </c>
+      <c r="R46" s="1">
+        <v>30</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1000501</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>20</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>10</v>
+      </c>
+      <c r="R47" s="1">
+        <v>30</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1000502</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>125</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>20</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>10</v>
+      </c>
+      <c r="R48" s="1">
+        <v>30</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1000503</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>150</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>20</v>
+      </c>
+      <c r="J49" s="1">
+        <v>5</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>10</v>
+      </c>
+      <c r="R49" s="1">
+        <v>30</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1000504</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>175</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>20</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>10</v>
+      </c>
+      <c r="R50" s="1">
+        <v>30</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B51" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1000505</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>200</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>20</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>10</v>
+      </c>
+      <c r="R51" s="1">
+        <v>30</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B52" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1000506</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>225</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>20</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>10</v>
+      </c>
+      <c r="R52" s="1">
+        <v>30</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B53" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1000507</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>250</v>
+      </c>
+      <c r="G53" s="1">
+        <v>15</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>20</v>
+      </c>
+      <c r="J53" s="1">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>10</v>
+      </c>
+      <c r="R53" s="1">
+        <v>30</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B54" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1000508</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
+        <v>275</v>
+      </c>
+      <c r="G54" s="1">
+        <v>15</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>20</v>
+      </c>
+      <c r="J54" s="1">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>10</v>
+      </c>
+      <c r="R54" s="1">
+        <v>30</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B55" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1000509</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <v>300</v>
+      </c>
+      <c r="G55" s="1">
+        <v>20</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>20</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>3</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>10</v>
+      </c>
+      <c r="R55" s="1">
+        <v>30</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B56" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1000510</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>325</v>
+      </c>
+      <c r="G56" s="1">
+        <v>20</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>20</v>
+      </c>
+      <c r="J56" s="1">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1">
+        <v>3</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>10</v>
+      </c>
+      <c r="R56" s="1">
+        <v>30</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>